--- a/Code/Results/Cases/Case_2_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.67725748302653</v>
+        <v>10.87158718709192</v>
       </c>
       <c r="C2">
-        <v>7.602504059369333</v>
+        <v>4.667729413407372</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.17520911611372</v>
+        <v>20.58565607656163</v>
       </c>
       <c r="F2">
-        <v>38.08926696019484</v>
+        <v>43.64623357156355</v>
       </c>
       <c r="G2">
-        <v>31.76506439102783</v>
+        <v>38.1587001304758</v>
       </c>
       <c r="H2">
-        <v>11.04049348910439</v>
+        <v>16.61509528955492</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.199203425564371</v>
+        <v>8.687948621700931</v>
       </c>
       <c r="K2">
-        <v>12.0960843976224</v>
+        <v>10.20548480321394</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.74422937820065</v>
+        <v>10.60796486234777</v>
       </c>
       <c r="C3">
-        <v>7.179587094253846</v>
+        <v>4.448602240158425</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.83561748193761</v>
+        <v>20.29518443454679</v>
       </c>
       <c r="F3">
-        <v>36.45839818442991</v>
+        <v>43.44934364049459</v>
       </c>
       <c r="G3">
-        <v>31.32387347887397</v>
+        <v>38.21684091622702</v>
       </c>
       <c r="H3">
-        <v>11.10190208929636</v>
+        <v>16.67230548386124</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.256440349497524</v>
+        <v>8.714749334005193</v>
       </c>
       <c r="K3">
-        <v>11.34110896697151</v>
+        <v>10.02821525823808</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13927595717677</v>
+        <v>10.44529183209191</v>
       </c>
       <c r="C4">
-        <v>6.907829020695906</v>
+        <v>4.307451264123833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.97874271381862</v>
+        <v>20.11961026510542</v>
       </c>
       <c r="F4">
-        <v>35.45791680218533</v>
+        <v>43.34053284159417</v>
       </c>
       <c r="G4">
-        <v>31.09480531367105</v>
+        <v>38.26560997654953</v>
       </c>
       <c r="H4">
-        <v>11.14890395908548</v>
+        <v>16.71060764341449</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.293987694847364</v>
+        <v>8.732287122575853</v>
       </c>
       <c r="K4">
-        <v>10.85333270789053</v>
+        <v>9.919977452353894</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8846154324927</v>
+        <v>10.37890274463551</v>
       </c>
       <c r="C5">
-        <v>6.794073157520169</v>
+        <v>4.248309354763642</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.62107334856959</v>
+        <v>20.04884658990262</v>
       </c>
       <c r="F5">
-        <v>35.05092046742099</v>
+        <v>43.2992591827435</v>
       </c>
       <c r="G5">
-        <v>31.01157899537083</v>
+        <v>38.28875097754684</v>
       </c>
       <c r="H5">
-        <v>11.17027585394579</v>
+        <v>16.72701257966661</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.309876681433442</v>
+        <v>8.739706250808604</v>
       </c>
       <c r="K5">
-        <v>10.64846064467588</v>
+        <v>9.876081656116957</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.8418357158976</v>
+        <v>10.36787607050932</v>
       </c>
       <c r="C6">
-        <v>6.775003187214196</v>
+        <v>4.238392224738659</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.56117584974488</v>
+        <v>20.03714618898142</v>
       </c>
       <c r="F6">
-        <v>34.98339724148211</v>
+        <v>43.29259178192333</v>
       </c>
       <c r="G6">
-        <v>30.99835839041151</v>
+        <v>38.29279024899593</v>
       </c>
       <c r="H6">
-        <v>11.17395524011216</v>
+        <v>16.72978465884336</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.312550113162438</v>
+        <v>8.740954647322823</v>
       </c>
       <c r="K6">
-        <v>10.6140733980537</v>
+        <v>9.868807342387598</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.13587455735054</v>
+        <v>10.44439674341286</v>
       </c>
       <c r="C7">
-        <v>6.906307021066536</v>
+        <v>4.306660164876272</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.9739531688733</v>
+        <v>20.11865263345566</v>
       </c>
       <c r="F7">
-        <v>35.45242435100984</v>
+        <v>43.33996375401579</v>
       </c>
       <c r="G7">
-        <v>31.09364246283878</v>
+        <v>38.26590886261654</v>
       </c>
       <c r="H7">
-        <v>11.14918335976656</v>
+        <v>16.71082566364421</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.29419961821624</v>
+        <v>8.732386076519946</v>
       </c>
       <c r="K7">
-        <v>10.85059443030744</v>
+        <v>9.91938452107896</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.36216081521573</v>
+        <v>10.78091940377398</v>
       </c>
       <c r="C8">
-        <v>7.459202684860242</v>
+        <v>4.59356699887858</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.72052282708845</v>
+        <v>20.48497713050377</v>
       </c>
       <c r="F8">
-        <v>37.52703266688219</v>
+        <v>43.57585798322037</v>
       </c>
       <c r="G8">
-        <v>31.60403266179306</v>
+        <v>38.17602320409305</v>
       </c>
       <c r="H8">
-        <v>11.05966385012621</v>
+        <v>16.63416131193975</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.218429518154771</v>
+        <v>8.696965078246457</v>
       </c>
       <c r="K8">
-        <v>11.84078568229</v>
+        <v>10.14427194459969</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.51589006373865</v>
+        <v>11.43005134235696</v>
       </c>
       <c r="C9">
-        <v>8.44700760342973</v>
+        <v>5.10236940301436</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.86917867042286</v>
+        <v>21.22154739558153</v>
       </c>
       <c r="F9">
-        <v>41.58461268848318</v>
+        <v>44.13276920507256</v>
       </c>
       <c r="G9">
-        <v>32.95279738382443</v>
+        <v>38.10424393754484</v>
       </c>
       <c r="H9">
-        <v>10.96355966234549</v>
+        <v>16.50909631695215</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.089742486994413</v>
+        <v>8.636078907716241</v>
       </c>
       <c r="K9">
-        <v>13.59147664325504</v>
+        <v>10.58750738121705</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.95026845406186</v>
+        <v>11.894886708939</v>
       </c>
       <c r="C10">
-        <v>9.114075594912606</v>
+        <v>5.44188138439491</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.12282094800451</v>
+        <v>21.76868147705625</v>
       </c>
       <c r="F10">
-        <v>44.54134778791678</v>
+        <v>44.59708825301784</v>
       </c>
       <c r="G10">
-        <v>34.17554642728774</v>
+        <v>38.11613273232017</v>
       </c>
       <c r="H10">
-        <v>10.94968154625181</v>
+        <v>16.4327307488353</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.008633642385973</v>
+        <v>8.59655743597202</v>
       </c>
       <c r="K10">
-        <v>14.76356379619834</v>
+        <v>10.91114153546983</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.57186342478395</v>
+        <v>12.10267778595511</v>
       </c>
       <c r="C11">
-        <v>9.405029780242385</v>
+        <v>5.588661042909658</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.11630327861719</v>
+        <v>22.01781290751879</v>
       </c>
       <c r="F11">
-        <v>45.87911946461634</v>
+        <v>44.8197096646835</v>
       </c>
       <c r="G11">
-        <v>34.78584527791161</v>
+        <v>38.13572547310181</v>
       </c>
       <c r="H11">
-        <v>10.95762873668004</v>
+        <v>16.40138391437333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.974995392635808</v>
+        <v>8.579706611252522</v>
       </c>
       <c r="K11">
-        <v>15.27270159215258</v>
+        <v>11.05725421542438</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.80290496300469</v>
+        <v>12.18075655507747</v>
       </c>
       <c r="C12">
-        <v>9.513439207650871</v>
+        <v>5.643126236632753</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.48634111141938</v>
+        <v>22.11209940753659</v>
       </c>
       <c r="F12">
-        <v>46.38460038468875</v>
+        <v>44.90559485574267</v>
       </c>
       <c r="G12">
-        <v>35.02500421177727</v>
+        <v>38.14519296174733</v>
       </c>
       <c r="H12">
-        <v>10.96286018933191</v>
+        <v>16.39000346371414</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.962759443981649</v>
+        <v>8.573487600384007</v>
       </c>
       <c r="K12">
-        <v>15.4621103829224</v>
+        <v>11.11236990731761</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.75333748712867</v>
+        <v>12.16396911102053</v>
       </c>
       <c r="C13">
-        <v>9.490169408744457</v>
+        <v>5.631446067246233</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.40691799988855</v>
+        <v>22.09179691110872</v>
       </c>
       <c r="F13">
-        <v>46.27578511463857</v>
+        <v>44.88702845339677</v>
       </c>
       <c r="G13">
-        <v>34.97313456387053</v>
+        <v>38.14306276932898</v>
       </c>
       <c r="H13">
-        <v>10.96163185269617</v>
+        <v>16.39243262480801</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.965371761493407</v>
+        <v>8.574819771248835</v>
       </c>
       <c r="K13">
-        <v>15.42146742798809</v>
+        <v>11.10051011328169</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.59095778102171</v>
+        <v>12.10911397963378</v>
       </c>
       <c r="C14">
-        <v>9.413983939776578</v>
+        <v>5.593164388594218</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.14686901502144</v>
+        <v>22.02557149710637</v>
       </c>
       <c r="F14">
-        <v>45.9207278324139</v>
+        <v>44.82674409234556</v>
       </c>
       <c r="G14">
-        <v>34.80535807904181</v>
+        <v>38.13646328186372</v>
       </c>
       <c r="H14">
-        <v>10.95801358521966</v>
+        <v>16.40043780717988</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.973978462794575</v>
+        <v>8.579191722857068</v>
       </c>
       <c r="K14">
-        <v>15.28835189824013</v>
+        <v>11.0617932079013</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.49093308748008</v>
+        <v>12.07543227878321</v>
       </c>
       <c r="C15">
-        <v>9.367088812887113</v>
+        <v>5.569569893887757</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.98678387418754</v>
+        <v>21.98499688635022</v>
       </c>
       <c r="F15">
-        <v>45.70310097412097</v>
+        <v>44.79002265158028</v>
       </c>
       <c r="G15">
-        <v>34.70364690078414</v>
+        <v>38.13268784144896</v>
       </c>
       <c r="H15">
-        <v>10.9560919043491</v>
+        <v>16.40540507636071</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.979316776974587</v>
+        <v>8.581890766953414</v>
       </c>
       <c r="K15">
-        <v>15.20637540720852</v>
+        <v>11.0380485453017</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.9090323077816</v>
+        <v>11.88122632837992</v>
       </c>
       <c r="C16">
-        <v>9.094811806397969</v>
+        <v>5.432133400018908</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.05701964282365</v>
+        <v>21.75239732577466</v>
       </c>
       <c r="F16">
-        <v>44.4537679424352</v>
+        <v>44.58276410902391</v>
       </c>
       <c r="G16">
-        <v>34.1367737523147</v>
+        <v>38.11513850633639</v>
       </c>
       <c r="H16">
-        <v>10.94946358367927</v>
+        <v>16.43484778003442</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.01090032301119</v>
+        <v>8.597681357699036</v>
       </c>
       <c r="K16">
-        <v>14.72981206208719</v>
+        <v>10.90156568349768</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.54420832765746</v>
+        <v>11.76108956050376</v>
       </c>
       <c r="C17">
-        <v>8.924595183042589</v>
+        <v>5.345845640234828</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.47542936246639</v>
+        <v>21.60970225690581</v>
       </c>
       <c r="F17">
-        <v>43.68541135930563</v>
+        <v>44.45849880503717</v>
       </c>
       <c r="G17">
-        <v>33.80306253426448</v>
+        <v>38.10801233175457</v>
       </c>
       <c r="H17">
-        <v>10.94916891351353</v>
+        <v>16.45378027119226</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.031132952670333</v>
+        <v>8.607657106892059</v>
       </c>
       <c r="K17">
-        <v>14.43134117606253</v>
+        <v>10.81751405171427</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.33145523241432</v>
+        <v>11.69164951365132</v>
       </c>
       <c r="C18">
-        <v>8.825512412662489</v>
+        <v>5.29549430344555</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.13673279090811</v>
+        <v>21.52765531878837</v>
       </c>
       <c r="F18">
-        <v>43.24278739887473</v>
+        <v>44.38810132478107</v>
       </c>
       <c r="G18">
-        <v>33.61619365370805</v>
+        <v>38.1052483058191</v>
       </c>
       <c r="H18">
-        <v>10.9503308937562</v>
+        <v>16.46498890812614</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.043074687926306</v>
+        <v>8.613501044727521</v>
       </c>
       <c r="K18">
-        <v>14.25740021705045</v>
+        <v>10.76906838463938</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.25891687390351</v>
+        <v>11.66808236245281</v>
       </c>
       <c r="C19">
-        <v>8.791761519761899</v>
+        <v>5.278322890041653</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.02133222997437</v>
+        <v>21.49988308652329</v>
       </c>
       <c r="F19">
-        <v>43.09280808835025</v>
+        <v>44.36445251350028</v>
       </c>
       <c r="G19">
-        <v>33.55378577401643</v>
+        <v>38.1045414029895</v>
       </c>
       <c r="H19">
-        <v>10.95094792305133</v>
+        <v>16.46883871285398</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.047169292270379</v>
+        <v>8.615497937282491</v>
       </c>
       <c r="K19">
-        <v>14.19811528791849</v>
+        <v>10.75264979841458</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.5833455411369</v>
+        <v>11.77391417155092</v>
       </c>
       <c r="C20">
-        <v>8.942836840989351</v>
+        <v>5.35510584625719</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.53777203674777</v>
+        <v>21.62489019269349</v>
       </c>
       <c r="F20">
-        <v>43.76727590598614</v>
+        <v>44.47161602633155</v>
       </c>
       <c r="G20">
-        <v>33.83805959790137</v>
+        <v>38.10863271328054</v>
       </c>
       <c r="H20">
-        <v>10.94906126660036</v>
+        <v>16.4517318269944</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.028947414575892</v>
+        <v>8.606584186123809</v>
       </c>
       <c r="K20">
-        <v>14.46334822144194</v>
+        <v>10.82647238702575</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.63876965529277</v>
+        <v>12.12524334882623</v>
       </c>
       <c r="C21">
-        <v>9.436409187079322</v>
+        <v>5.604439064992679</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.22341754877899</v>
+        <v>22.0450256679351</v>
       </c>
       <c r="F21">
-        <v>46.02504675523708</v>
+        <v>44.84440856352606</v>
       </c>
       <c r="G21">
-        <v>34.85441738044137</v>
+        <v>38.13834607049979</v>
       </c>
       <c r="H21">
-        <v>10.95901464269454</v>
+        <v>16.39807317815535</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.971436549505821</v>
+        <v>8.57790317821016</v>
       </c>
       <c r="K21">
-        <v>15.32754258896335</v>
+        <v>11.07317153020259</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30328882843349</v>
+        <v>12.35128524519802</v>
       </c>
       <c r="C22">
-        <v>9.748697880222528</v>
+        <v>5.760876771564715</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.28921471926994</v>
+        <v>22.3192536611012</v>
       </c>
       <c r="F22">
-        <v>47.49423197074125</v>
+        <v>45.09725042509085</v>
       </c>
       <c r="G22">
-        <v>35.56572722452081</v>
+        <v>38.16970574485753</v>
       </c>
       <c r="H22">
-        <v>10.97855737406045</v>
+        <v>16.36586071661452</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.936795436412347</v>
+        <v>8.560102867449663</v>
       </c>
       <c r="K22">
-        <v>15.87261869742109</v>
+        <v>11.23313291067927</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.95089822507451</v>
+        <v>12.23099415172292</v>
       </c>
       <c r="C23">
-        <v>9.58295329524366</v>
+        <v>5.677983333500607</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.72359006537008</v>
+        <v>22.17295399430213</v>
       </c>
       <c r="F23">
-        <v>46.71068166247963</v>
+        <v>44.96148148695822</v>
       </c>
       <c r="G23">
-        <v>35.18169056310927</v>
+        <v>38.15187382393519</v>
       </c>
       <c r="H23">
-        <v>10.96687513873888</v>
+        <v>16.38279104423325</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.955002290130031</v>
+        <v>8.569516857287157</v>
       </c>
       <c r="K23">
-        <v>15.58348122351033</v>
+        <v>11.1478920754642</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.56566099291584</v>
+        <v>11.76811731684311</v>
       </c>
       <c r="C24">
-        <v>8.934593598759331</v>
+        <v>5.350921621419538</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.50960042319834</v>
+        <v>21.61802375020699</v>
       </c>
       <c r="F24">
-        <v>43.73026769694883</v>
+        <v>44.46568247327379</v>
       </c>
       <c r="G24">
-        <v>33.82222191569807</v>
+        <v>38.10834808735537</v>
       </c>
       <c r="H24">
-        <v>10.94910579965559</v>
+        <v>16.45265691915989</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.029934534100713</v>
+        <v>8.607068914848515</v>
       </c>
       <c r="K24">
-        <v>14.44888514872267</v>
+        <v>10.82242270337828</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.95961663478967</v>
+        <v>11.25618885027987</v>
       </c>
       <c r="C25">
-        <v>8.190129837101114</v>
+        <v>4.970659857387458</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.04727508026663</v>
+        <v>21.0208674438748</v>
       </c>
       <c r="F25">
-        <v>40.49022825211821</v>
+        <v>43.97223726648498</v>
       </c>
       <c r="G25">
-        <v>32.54852934597447</v>
+        <v>38.11237165614197</v>
       </c>
       <c r="H25">
-        <v>10.98022527636863</v>
+        <v>16.5402123627178</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.122300719169848</v>
+        <v>8.651633932780998</v>
       </c>
       <c r="K25">
-        <v>13.13812135572042</v>
+        <v>10.46771574465559</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_133/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.87158718709192</v>
+        <v>13.67725748302662</v>
       </c>
       <c r="C2">
-        <v>4.667729413407372</v>
+        <v>7.602504059369178</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.58565607656163</v>
+        <v>21.17520911611373</v>
       </c>
       <c r="F2">
-        <v>43.64623357156355</v>
+        <v>38.08926696019468</v>
       </c>
       <c r="G2">
-        <v>38.1587001304758</v>
+        <v>31.76506439102758</v>
       </c>
       <c r="H2">
-        <v>16.61509528955492</v>
+        <v>11.04049348910423</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.687948621700931</v>
+        <v>5.199203425564312</v>
       </c>
       <c r="K2">
-        <v>10.20548480321394</v>
+        <v>12.09608439762246</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.60796486234777</v>
+        <v>12.74422937820071</v>
       </c>
       <c r="C3">
-        <v>4.448602240158425</v>
+        <v>7.179587094253661</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.29518443454679</v>
+        <v>19.83561748193756</v>
       </c>
       <c r="F3">
-        <v>43.44934364049459</v>
+        <v>36.45839818442993</v>
       </c>
       <c r="G3">
-        <v>38.21684091622702</v>
+        <v>31.32387347887445</v>
       </c>
       <c r="H3">
-        <v>16.67230548386124</v>
+        <v>11.10190208929636</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.714749334005193</v>
+        <v>5.256440349497555</v>
       </c>
       <c r="K3">
-        <v>10.02821525823808</v>
+        <v>11.34110896697152</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.44529183209191</v>
+        <v>12.13927595717671</v>
       </c>
       <c r="C4">
-        <v>4.307451264123833</v>
+        <v>6.907829020695893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.11961026510542</v>
+        <v>18.97874271381857</v>
       </c>
       <c r="F4">
-        <v>43.34053284159417</v>
+        <v>35.45791680218541</v>
       </c>
       <c r="G4">
-        <v>38.26560997654953</v>
+        <v>31.09480531367148</v>
       </c>
       <c r="H4">
-        <v>16.71060764341449</v>
+        <v>11.1489039590857</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.732287122575853</v>
+        <v>5.293987694847369</v>
       </c>
       <c r="K4">
-        <v>9.919977452353894</v>
+        <v>10.85333270789047</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37890274463551</v>
+        <v>11.88461543249269</v>
       </c>
       <c r="C5">
-        <v>4.248309354763642</v>
+        <v>6.794073157520073</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.04884658990262</v>
+        <v>18.62107334856957</v>
       </c>
       <c r="F5">
-        <v>43.2992591827435</v>
+        <v>35.05092046742102</v>
       </c>
       <c r="G5">
-        <v>38.28875097754684</v>
+        <v>31.01157899537083</v>
       </c>
       <c r="H5">
-        <v>16.72701257966661</v>
+        <v>11.17027585394581</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.739706250808604</v>
+        <v>5.309876681433507</v>
       </c>
       <c r="K5">
-        <v>9.876081656116957</v>
+        <v>10.64846064467584</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.36787607050932</v>
+        <v>11.8418357158977</v>
       </c>
       <c r="C6">
-        <v>4.238392224738659</v>
+        <v>6.775003187214399</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.03714618898142</v>
+        <v>18.56117584974495</v>
       </c>
       <c r="F6">
-        <v>43.29259178192333</v>
+        <v>34.98339724148202</v>
       </c>
       <c r="G6">
-        <v>38.29279024899593</v>
+        <v>30.99835839041103</v>
       </c>
       <c r="H6">
-        <v>16.72978465884336</v>
+        <v>11.17395524011199</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.740954647322823</v>
+        <v>5.312550113162408</v>
       </c>
       <c r="K6">
-        <v>9.868807342387598</v>
+        <v>10.61407339805384</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.44439674341286</v>
+        <v>12.1358745573506</v>
       </c>
       <c r="C7">
-        <v>4.306660164876272</v>
+        <v>6.906307021066321</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.11865263345566</v>
+        <v>18.97395316887327</v>
       </c>
       <c r="F7">
-        <v>43.33996375401579</v>
+        <v>35.45242435100993</v>
       </c>
       <c r="G7">
-        <v>38.26590886261654</v>
+        <v>31.0936424628389</v>
       </c>
       <c r="H7">
-        <v>16.71082566364421</v>
+        <v>11.1491833597667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.732386076519946</v>
+        <v>5.294199618216335</v>
       </c>
       <c r="K7">
-        <v>9.91938452107896</v>
+        <v>10.85059443030748</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.78091940377398</v>
+        <v>13.36216081521575</v>
       </c>
       <c r="C8">
-        <v>4.59356699887858</v>
+        <v>7.459202684860189</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.48497713050377</v>
+        <v>20.72052282708846</v>
       </c>
       <c r="F8">
-        <v>43.57585798322037</v>
+        <v>37.52703266688223</v>
       </c>
       <c r="G8">
-        <v>38.17602320409305</v>
+        <v>31.60403266179305</v>
       </c>
       <c r="H8">
-        <v>16.63416131193975</v>
+        <v>11.05966385012621</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.696965078246457</v>
+        <v>5.218429518154711</v>
       </c>
       <c r="K8">
-        <v>10.14427194459969</v>
+        <v>11.84078568229001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.43005134235696</v>
+        <v>15.51589006373872</v>
       </c>
       <c r="C9">
-        <v>5.10236940301436</v>
+        <v>8.447007603429791</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.22154739558153</v>
+        <v>23.86917867042287</v>
       </c>
       <c r="F9">
-        <v>44.13276920507256</v>
+        <v>41.58461268848318</v>
       </c>
       <c r="G9">
-        <v>38.10424393754484</v>
+        <v>32.9527973838244</v>
       </c>
       <c r="H9">
-        <v>16.50909631695215</v>
+        <v>10.96355966234542</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.636078907716241</v>
+        <v>5.089742486994477</v>
       </c>
       <c r="K9">
-        <v>10.58750738121705</v>
+        <v>13.59147664325511</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.894886708939</v>
+        <v>16.95026845406186</v>
       </c>
       <c r="C10">
-        <v>5.44188138439491</v>
+        <v>9.114075594912553</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.76868147705625</v>
+        <v>26.12282094800461</v>
       </c>
       <c r="F10">
-        <v>44.59708825301784</v>
+        <v>44.54134778791676</v>
       </c>
       <c r="G10">
-        <v>38.11613273232017</v>
+        <v>34.17554642728778</v>
       </c>
       <c r="H10">
-        <v>16.4327307488353</v>
+        <v>10.9496815462518</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.59655743597202</v>
+        <v>5.008633642385976</v>
       </c>
       <c r="K10">
-        <v>10.91114153546983</v>
+        <v>14.76356379619833</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.10267778595511</v>
+        <v>17.57186342478397</v>
       </c>
       <c r="C11">
-        <v>5.588661042909658</v>
+        <v>9.405029780242526</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.01781290751879</v>
+        <v>27.11630327861718</v>
       </c>
       <c r="F11">
-        <v>44.8197096646835</v>
+        <v>45.87911946461641</v>
       </c>
       <c r="G11">
-        <v>38.13572547310181</v>
+        <v>34.78584527791169</v>
       </c>
       <c r="H11">
-        <v>16.40138391437333</v>
+        <v>10.95762873668006</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.579706611252522</v>
+        <v>4.974995392635752</v>
       </c>
       <c r="K11">
-        <v>11.05725421542438</v>
+        <v>15.2727015921526</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.18075655507747</v>
+        <v>17.80290496300469</v>
       </c>
       <c r="C12">
-        <v>5.643126236632753</v>
+        <v>9.513439207651125</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.11209940753659</v>
+        <v>27.4863411114193</v>
       </c>
       <c r="F12">
-        <v>44.90559485574267</v>
+        <v>46.38460038468878</v>
       </c>
       <c r="G12">
-        <v>38.14519296174733</v>
+        <v>35.02500421177739</v>
       </c>
       <c r="H12">
-        <v>16.39000346371414</v>
+        <v>10.96286018933189</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.573487600384007</v>
+        <v>4.962759443981711</v>
       </c>
       <c r="K12">
-        <v>11.11236990731761</v>
+        <v>15.46211038292248</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.16396911102053</v>
+        <v>17.75333748712865</v>
       </c>
       <c r="C13">
-        <v>5.631446067246233</v>
+        <v>9.490169408744649</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.09179691110872</v>
+        <v>27.40691799988851</v>
       </c>
       <c r="F13">
-        <v>44.88702845339677</v>
+        <v>46.27578511463859</v>
       </c>
       <c r="G13">
-        <v>38.14306276932898</v>
+        <v>34.97313456387062</v>
       </c>
       <c r="H13">
-        <v>16.39243262480801</v>
+        <v>10.96163185269616</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.574819771248835</v>
+        <v>4.965371761493411</v>
       </c>
       <c r="K13">
-        <v>11.10051011328169</v>
+        <v>15.42146742798808</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.10911397963378</v>
+        <v>17.59095778102176</v>
       </c>
       <c r="C14">
-        <v>5.593164388594218</v>
+        <v>9.413983939776594</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.02557149710637</v>
+        <v>27.14686901502149</v>
       </c>
       <c r="F14">
-        <v>44.82674409234556</v>
+        <v>45.92072783241388</v>
       </c>
       <c r="G14">
-        <v>38.13646328186372</v>
+        <v>34.80535807904158</v>
       </c>
       <c r="H14">
-        <v>16.40043780717988</v>
+        <v>10.95801358521961</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.579191722857068</v>
+        <v>4.973978462794466</v>
       </c>
       <c r="K14">
-        <v>11.0617932079013</v>
+        <v>15.28835189824016</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.07543227878321</v>
+        <v>17.49093308748004</v>
       </c>
       <c r="C15">
-        <v>5.569569893887757</v>
+        <v>9.367088812886998</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.98499688635022</v>
+        <v>26.98678387418761</v>
       </c>
       <c r="F15">
-        <v>44.79002265158028</v>
+        <v>45.70310097412091</v>
       </c>
       <c r="G15">
-        <v>38.13268784144896</v>
+        <v>34.70364690078419</v>
       </c>
       <c r="H15">
-        <v>16.40540507636071</v>
+        <v>10.95609190434909</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.581890766953414</v>
+        <v>4.979316776974637</v>
       </c>
       <c r="K15">
-        <v>11.0380485453017</v>
+        <v>15.20637540720848</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.88122632837992</v>
+        <v>16.90903230778161</v>
       </c>
       <c r="C16">
-        <v>5.432133400018908</v>
+        <v>9.094811806397871</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.75239732577466</v>
+        <v>26.05701964282363</v>
       </c>
       <c r="F16">
-        <v>44.58276410902391</v>
+        <v>44.45376794243525</v>
       </c>
       <c r="G16">
-        <v>38.11513850633639</v>
+        <v>34.13677375231475</v>
       </c>
       <c r="H16">
-        <v>16.43484778003442</v>
+        <v>10.94946358367933</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.597681357699036</v>
+        <v>5.010900323011219</v>
       </c>
       <c r="K16">
-        <v>10.90156568349768</v>
+        <v>14.72981206208716</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76108956050376</v>
+        <v>16.5442083276574</v>
       </c>
       <c r="C17">
-        <v>5.345845640234828</v>
+        <v>8.924595183042596</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>21.60970225690581</v>
+        <v>25.47542936246637</v>
       </c>
       <c r="F17">
-        <v>44.45849880503717</v>
+        <v>43.68541135930567</v>
       </c>
       <c r="G17">
-        <v>38.10801233175457</v>
+        <v>33.80306253426449</v>
       </c>
       <c r="H17">
-        <v>16.45378027119226</v>
+        <v>10.94916891351357</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.607657106892059</v>
+        <v>5.031132952670331</v>
       </c>
       <c r="K17">
-        <v>10.81751405171427</v>
+        <v>14.43134117606249</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.69164951365132</v>
+        <v>16.33145523241431</v>
       </c>
       <c r="C18">
-        <v>5.29549430344555</v>
+        <v>8.825512412662539</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.52765531878837</v>
+        <v>25.13673279090812</v>
       </c>
       <c r="F18">
-        <v>44.38810132478107</v>
+        <v>43.24278739887477</v>
       </c>
       <c r="G18">
-        <v>38.1052483058191</v>
+        <v>33.61619365370802</v>
       </c>
       <c r="H18">
-        <v>16.46498890812614</v>
+        <v>10.95033089375616</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.613501044727521</v>
+        <v>5.043074687926285</v>
       </c>
       <c r="K18">
-        <v>10.76906838463938</v>
+        <v>14.25740021705045</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.66808236245281</v>
+        <v>16.25891687390352</v>
       </c>
       <c r="C19">
-        <v>5.278322890041653</v>
+        <v>8.791761519761925</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.49988308652329</v>
+        <v>25.02133222997439</v>
       </c>
       <c r="F19">
-        <v>44.36445251350028</v>
+        <v>43.09280808835022</v>
       </c>
       <c r="G19">
-        <v>38.1045414029895</v>
+        <v>33.55378577401613</v>
       </c>
       <c r="H19">
-        <v>16.46883871285398</v>
+        <v>10.95094792305125</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.615497937282491</v>
+        <v>5.047169292270339</v>
       </c>
       <c r="K19">
-        <v>10.75264979841458</v>
+        <v>14.19811528791852</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.77391417155092</v>
+        <v>16.58334554113698</v>
       </c>
       <c r="C20">
-        <v>5.35510584625719</v>
+        <v>8.942836840989226</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.62489019269349</v>
+        <v>25.53777203674776</v>
       </c>
       <c r="F20">
-        <v>44.47161602633155</v>
+        <v>43.76727590598615</v>
       </c>
       <c r="G20">
-        <v>38.10863271328054</v>
+        <v>33.83805959790116</v>
       </c>
       <c r="H20">
-        <v>16.4517318269944</v>
+        <v>10.94906126660036</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.606584186123809</v>
+        <v>5.028947414575772</v>
       </c>
       <c r="K20">
-        <v>10.82647238702575</v>
+        <v>14.46334822144197</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.12524334882623</v>
+        <v>17.63876965529283</v>
       </c>
       <c r="C21">
-        <v>5.604439064992679</v>
+        <v>9.436409187079247</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.0450256679351</v>
+        <v>27.22341754877898</v>
       </c>
       <c r="F21">
-        <v>44.84440856352606</v>
+        <v>46.02504675523706</v>
       </c>
       <c r="G21">
-        <v>38.13834607049979</v>
+        <v>34.85441738044132</v>
       </c>
       <c r="H21">
-        <v>16.39807317815535</v>
+        <v>10.95901464269454</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.57790317821016</v>
+        <v>4.971436549505903</v>
       </c>
       <c r="K21">
-        <v>11.07317153020259</v>
+        <v>15.32754258896337</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.35128524519802</v>
+        <v>18.30328882843354</v>
       </c>
       <c r="C22">
-        <v>5.760876771564715</v>
+        <v>9.748697880222283</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.3192536611012</v>
+        <v>28.28921471926993</v>
       </c>
       <c r="F22">
-        <v>45.09725042509085</v>
+        <v>47.49423197074126</v>
       </c>
       <c r="G22">
-        <v>38.16970574485753</v>
+        <v>35.56572722452083</v>
       </c>
       <c r="H22">
-        <v>16.36586071661452</v>
+        <v>10.97855737406045</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.560102867449663</v>
+        <v>4.936795436412377</v>
       </c>
       <c r="K22">
-        <v>11.23313291067927</v>
+        <v>15.87261869742106</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.23099415172292</v>
+        <v>17.9508982250745</v>
       </c>
       <c r="C23">
-        <v>5.677983333500607</v>
+        <v>9.582953295243636</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.17295399430213</v>
+        <v>27.72359006536998</v>
       </c>
       <c r="F23">
-        <v>44.96148148695822</v>
+        <v>46.71068166247969</v>
       </c>
       <c r="G23">
-        <v>38.15187382393519</v>
+        <v>35.18169056310942</v>
       </c>
       <c r="H23">
-        <v>16.38279104423325</v>
+        <v>10.9668751387389</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.569516857287157</v>
+        <v>4.955002290130062</v>
       </c>
       <c r="K23">
-        <v>11.1478920754642</v>
+        <v>15.5834812235103</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.76811731684311</v>
+        <v>16.56566099291593</v>
       </c>
       <c r="C24">
-        <v>5.350921621419538</v>
+        <v>8.934593598759124</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.61802375020699</v>
+        <v>25.50960042319836</v>
       </c>
       <c r="F24">
-        <v>44.46568247327379</v>
+        <v>43.7302676969488</v>
       </c>
       <c r="G24">
-        <v>38.10834808735537</v>
+        <v>33.82222191569794</v>
       </c>
       <c r="H24">
-        <v>16.45265691915989</v>
+        <v>10.94910579965553</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.607068914848515</v>
+        <v>5.029934534100602</v>
       </c>
       <c r="K24">
-        <v>10.82242270337828</v>
+        <v>14.44888514872271</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.25618885027987</v>
+        <v>14.9596166347896</v>
       </c>
       <c r="C25">
-        <v>4.970659857387458</v>
+        <v>8.190129837101187</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.0208674438748</v>
+        <v>23.0472750802666</v>
       </c>
       <c r="F25">
-        <v>43.97223726648498</v>
+        <v>40.49022825211826</v>
       </c>
       <c r="G25">
-        <v>38.11237165614197</v>
+        <v>32.54852934597484</v>
       </c>
       <c r="H25">
-        <v>16.5402123627178</v>
+        <v>10.98022527636869</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.651633932780998</v>
+        <v>5.122300719169853</v>
       </c>
       <c r="K25">
-        <v>10.46771574465559</v>
+        <v>13.13812135572036</v>
       </c>
       <c r="L25">
         <v>0</v>
